--- a/Code/Results/Cases/Case_2_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.433940686400717</v>
+        <v>2.093638017770559</v>
       </c>
       <c r="C2">
-        <v>0.9412400670614431</v>
+        <v>0.315208144334747</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02910489148547413</v>
+        <v>0.03627480459440591</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008079808358870772</v>
+        <v>0.002542814170109375</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.132502099672351</v>
+        <v>1.646081954904304</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1746917598943156</v>
+        <v>0.2236549557337781</v>
       </c>
       <c r="M2">
-        <v>0.5602099032065908</v>
+        <v>0.4085453204198757</v>
       </c>
       <c r="N2">
-        <v>1.094206838796765</v>
+        <v>2.099581378194465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986438281754999</v>
+        <v>1.988258088193845</v>
       </c>
       <c r="C3">
-        <v>0.8087483760128578</v>
+        <v>0.2801567759861427</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02670781835926483</v>
+        <v>0.0355052710502779</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008171803649117896</v>
+        <v>0.002548453507922864</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.072777529787395</v>
+        <v>1.6417606853405</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1584199650899265</v>
+        <v>0.2209323942782646</v>
       </c>
       <c r="M3">
-        <v>0.4903703016763856</v>
+        <v>0.3928655311267661</v>
       </c>
       <c r="N3">
-        <v>1.14931207562671</v>
+        <v>2.120333747197954</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.716923974829342</v>
+        <v>1.924823135559052</v>
       </c>
       <c r="C4">
-        <v>0.7290144352949142</v>
+        <v>0.2587678202824577</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02526039451440543</v>
+        <v>0.03502449253365114</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008229700354147154</v>
+        <v>0.002552096365496674</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.038955373252385</v>
+        <v>1.640033185484903</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1487262553528694</v>
+        <v>0.2193779890623802</v>
       </c>
       <c r="M4">
-        <v>0.4483797972367114</v>
+        <v>0.3834853895524191</v>
       </c>
       <c r="N4">
-        <v>1.185070641081332</v>
+        <v>2.133803042109761</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.608246392178614</v>
+        <v>1.899290298110429</v>
       </c>
       <c r="C5">
-        <v>0.6968684341563858</v>
+        <v>0.2500840293490967</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02467531863469485</v>
+        <v>0.03482645905580561</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008253668300396311</v>
+        <v>0.002553626352529557</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.025827790864462</v>
+        <v>1.639561057955532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1448437434496768</v>
+        <v>0.2187740025749392</v>
       </c>
       <c r="M5">
-        <v>0.4314654967628115</v>
+        <v>0.379724856078326</v>
       </c>
       <c r="N5">
-        <v>1.200102976860649</v>
+        <v>2.139474297073356</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.590265450327081</v>
+        <v>1.895069714919657</v>
       </c>
       <c r="C6">
-        <v>0.6915498689414221</v>
+        <v>0.2486440194843453</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02457841735906197</v>
+        <v>0.0347934473017677</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008257671327527034</v>
+        <v>0.002553883158156492</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.023685852423064</v>
+        <v>1.639496636650911</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1442029542881187</v>
+        <v>0.2186754884493212</v>
       </c>
       <c r="M6">
-        <v>0.4286680554042377</v>
+        <v>0.3791041571795191</v>
       </c>
       <c r="N6">
-        <v>1.202626251923029</v>
+        <v>2.140427008079335</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.715453860902642</v>
+        <v>1.92447750768639</v>
       </c>
       <c r="C7">
-        <v>0.7285795768569301</v>
+        <v>0.2586505778245396</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02525248640920541</v>
+        <v>0.03502183037607587</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008230022053368976</v>
+        <v>0.002552116815120353</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.038775754064574</v>
+        <v>1.640025880760099</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1486736289158088</v>
+        <v>0.2193697243128128</v>
       </c>
       <c r="M7">
-        <v>0.448150920632763</v>
+        <v>0.3834344231611269</v>
       </c>
       <c r="N7">
-        <v>1.185271537416213</v>
+        <v>2.133878788716046</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.278444408688756</v>
+        <v>2.057038668061864</v>
       </c>
       <c r="C8">
-        <v>0.8951833389166666</v>
+        <v>0.3030942743851028</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02827244635924053</v>
+        <v>0.03601117015721478</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.000811124783794263</v>
+        <v>0.002544721292929434</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.111279182417682</v>
+        <v>1.644399255026656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1690151505817497</v>
+        <v>0.2226918539530942</v>
       </c>
       <c r="M8">
-        <v>0.5359272140847509</v>
+        <v>0.4030874483507532</v>
       </c>
       <c r="N8">
-        <v>1.112793154379816</v>
+        <v>2.106585572930591</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.432722755333543</v>
+        <v>2.327147835593223</v>
       </c>
       <c r="C9">
-        <v>1.237774203546394</v>
+        <v>0.3913507429581387</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03445868730221591</v>
+        <v>0.03788696263893776</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007888540312357417</v>
+        <v>0.002531641837716735</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.279144041748268</v>
+        <v>1.660366772655919</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2116146078381433</v>
+        <v>0.2301394042953859</v>
       </c>
       <c r="M9">
-        <v>0.7164891915797185</v>
+        <v>0.4436027735483208</v>
       </c>
       <c r="N9">
-        <v>0.9870972452237723</v>
+        <v>2.05885443934195</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.324977382892882</v>
+        <v>2.531938890989068</v>
       </c>
       <c r="C10">
-        <v>1.504017623527773</v>
+        <v>0.4569399331048771</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03927910303362481</v>
+        <v>0.0392279631514203</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007729584415809889</v>
+        <v>0.002522889691963589</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.422998332816988</v>
+        <v>1.676671430718741</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2451170745073057</v>
+        <v>0.2361842465866033</v>
       </c>
       <c r="M10">
-        <v>0.8564412842725986</v>
+        <v>0.4745965229686036</v>
       </c>
       <c r="N10">
-        <v>0.9066125898964259</v>
+        <v>2.027343705917382</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.744045192461954</v>
+        <v>2.626515185610572</v>
       </c>
       <c r="C11">
-        <v>1.629581081446872</v>
+        <v>0.4869571536984836</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0415628712887699</v>
+        <v>0.03983040632416923</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007657879636516863</v>
+        <v>0.002519092082156152</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.494174993331498</v>
+        <v>1.685096899472327</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2609805803742802</v>
+        <v>0.2390596994956837</v>
       </c>
       <c r="M11">
-        <v>0.9222561782309597</v>
+        <v>0.4889680736322788</v>
       </c>
       <c r="N11">
-        <v>0.8730614207383951</v>
+        <v>2.013787046573427</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.904977885708036</v>
+        <v>2.662534732410336</v>
       </c>
       <c r="C12">
-        <v>1.677894918157108</v>
+        <v>0.4983510753007181</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04244388366539731</v>
+        <v>0.0400574803379854</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007630774539484545</v>
+        <v>0.002517680286336217</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.522078027103845</v>
+        <v>1.688433591127435</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2670912024660197</v>
+        <v>0.2401666930447846</v>
       </c>
       <c r="M12">
-        <v>0.9475426983010991</v>
+        <v>0.4944497260098402</v>
       </c>
       <c r="N12">
-        <v>0.8608451067514764</v>
+        <v>2.008765873624483</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.870212426712897</v>
+        <v>2.654768104527591</v>
       </c>
       <c r="C13">
-        <v>1.667453397808117</v>
+        <v>0.4958959693657903</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04225336588095985</v>
+        <v>0.04000862242515524</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007636610657377673</v>
+        <v>0.002517983175662045</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.516024166754292</v>
+        <v>1.687708456444994</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2657703275745149</v>
+        <v>0.2399274752625331</v>
       </c>
       <c r="M13">
-        <v>0.9420796541796435</v>
+        <v>0.4932673943815544</v>
       </c>
       <c r="N13">
-        <v>0.8634535177943476</v>
+        <v>2.00984226255455</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.757238147624662</v>
+        <v>2.629474404312134</v>
       </c>
       <c r="C14">
-        <v>1.633539752937565</v>
+        <v>0.4878939898856629</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04163500824253852</v>
+        <v>0.03984910885886528</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007655648967400451</v>
+        <v>0.002518975407081975</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.496450770926486</v>
+        <v>1.685368475440569</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2614811451208681</v>
+        <v>0.2391504089941634</v>
       </c>
       <c r="M14">
-        <v>0.9243288815105686</v>
+        <v>0.489418259949467</v>
       </c>
       <c r="N14">
-        <v>0.8720462770827169</v>
+        <v>2.013371694704965</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.688341099840841</v>
+        <v>2.614008111285102</v>
       </c>
       <c r="C15">
-        <v>1.612870452085588</v>
+        <v>0.4829961026941305</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04125845774579062</v>
+        <v>0.03975126536506757</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007667315469576458</v>
+        <v>0.002519586594955873</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.484589243672914</v>
+        <v>1.683954236709752</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2588678147579628</v>
+        <v>0.238676795219277</v>
       </c>
       <c r="M15">
-        <v>0.9135051637167493</v>
+        <v>0.4870657014971442</v>
       </c>
       <c r="N15">
-        <v>0.8773748093466622</v>
+        <v>2.015548234843301</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.297883910883343</v>
+        <v>2.525786764280895</v>
       </c>
       <c r="C16">
-        <v>1.495911608768324</v>
+        <v>0.4549819615482988</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0391319383084916</v>
+        <v>0.03918844222106443</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007734279452873416</v>
+        <v>0.002523141559580103</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.418472485661468</v>
+        <v>1.676141195382414</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2440940363619859</v>
+        <v>0.2359988617049709</v>
       </c>
       <c r="M16">
-        <v>0.852187886640877</v>
+        <v>0.4736628136079233</v>
       </c>
       <c r="N16">
-        <v>0.9088708321417371</v>
+        <v>2.028245366733557</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.061956775924216</v>
+        <v>2.472029831258737</v>
       </c>
       <c r="C17">
-        <v>1.425384267652873</v>
+        <v>0.4378431781427707</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03785273934768263</v>
+        <v>0.03884124884629081</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.000777548857060828</v>
+        <v>0.002525369379284448</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.379464691626922</v>
+        <v>1.671607230319196</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2351996588316609</v>
+        <v>0.2343882516543943</v>
       </c>
       <c r="M17">
-        <v>0.8151588898999833</v>
+        <v>0.4655105365639969</v>
       </c>
       <c r="N17">
-        <v>0.9290091185107627</v>
+        <v>2.036234267253846</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.927474545367772</v>
+        <v>2.441243408019318</v>
       </c>
       <c r="C18">
-        <v>1.385228898121056</v>
+        <v>0.4280023127554955</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03712532220646025</v>
+        <v>0.03864083652308281</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007799250555482924</v>
+        <v>0.002526668070129824</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.357559925163926</v>
+        <v>1.669094259348498</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2301415598950882</v>
+        <v>0.2334736921001337</v>
       </c>
       <c r="M18">
-        <v>0.7940594572879931</v>
+        <v>0.460847178028942</v>
       </c>
       <c r="N18">
-        <v>0.9408770166332658</v>
+        <v>2.040902438637936</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.882140418215613</v>
+        <v>2.430842462478722</v>
       </c>
       <c r="C19">
-        <v>1.371699874772162</v>
+        <v>0.4246732353576022</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03688037763073915</v>
+        <v>0.03857285641741015</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007807307290953304</v>
+        <v>0.002527110761626039</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.350231109955061</v>
+        <v>1.668259665855501</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2284384947516003</v>
+        <v>0.2331660664606261</v>
       </c>
       <c r="M19">
-        <v>0.7869481320003899</v>
+        <v>0.4592726355695405</v>
       </c>
       <c r="N19">
-        <v>0.9449428490205278</v>
+        <v>2.042495549557877</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.086943338299136</v>
+        <v>2.477738554710868</v>
       </c>
       <c r="C20">
-        <v>1.432848727431974</v>
+        <v>0.4396658728004468</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03798802770786303</v>
+        <v>0.03887828202998733</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.000777109588716104</v>
+        <v>0.002525130434088336</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.383561282846003</v>
+        <v>1.672080054237043</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2361404132060869</v>
+        <v>0.23455848003303</v>
       </c>
       <c r="M20">
-        <v>0.8190797572369135</v>
+        <v>0.4663757071364429</v>
       </c>
       <c r="N20">
-        <v>0.926835549946496</v>
+        <v>2.035376258306378</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.790357603858126</v>
+        <v>2.636898182540904</v>
       </c>
       <c r="C21">
-        <v>1.643479130615788</v>
+        <v>0.4902436220904747</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04181616766150853</v>
+        <v>0.03989599031634583</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007650055992231128</v>
+        <v>0.002518683252679846</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.502173080238194</v>
+        <v>1.686051808929903</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.262738053980982</v>
+        <v>0.2393781599011788</v>
       </c>
       <c r="M21">
-        <v>0.9295323632196144</v>
+        <v>0.4905477707563435</v>
       </c>
       <c r="N21">
-        <v>0.8695086866098904</v>
+        <v>2.012331958488225</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.263340170110666</v>
+        <v>2.74211728923126</v>
       </c>
       <c r="C22">
-        <v>1.785674541775052</v>
+        <v>0.52345731194157</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04441435993197018</v>
+        <v>0.04055496925413671</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007571206432733103</v>
+        <v>0.002514622737049388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.585302119572333</v>
+        <v>1.69603557244983</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2807320899342756</v>
+        <v>0.2426337560237357</v>
       </c>
       <c r="M22">
-        <v>1.003871779107747</v>
+        <v>0.5065757466058045</v>
       </c>
       <c r="N22">
-        <v>0.8349193857336061</v>
+        <v>1.997926848293062</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.009558884967532</v>
+        <v>2.685849492774025</v>
       </c>
       <c r="C23">
-        <v>1.709320175011669</v>
+        <v>0.5057156919546628</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04301766731442314</v>
+        <v>0.04020381186888322</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0007613280862176907</v>
+        <v>0.00251677595289978</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.540374959931299</v>
+        <v>1.690628671719764</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2710673237208425</v>
+        <v>0.2408864959769375</v>
       </c>
       <c r="M23">
-        <v>0.9639782598823601</v>
+        <v>0.4980001569240144</v>
       </c>
       <c r="N23">
-        <v>0.8530990658635531</v>
+        <v>2.005554930781052</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.075643340035981</v>
+        <v>2.475157269848921</v>
       </c>
       <c r="C24">
-        <v>1.429472834251555</v>
+        <v>0.4388417938517364</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03792683911487593</v>
+        <v>0.03886154184122148</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007773081597665147</v>
+        <v>0.002525238405399545</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.381707599327569</v>
+        <v>1.671865998881486</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2357149266249507</v>
+        <v>0.2344814842739424</v>
       </c>
       <c r="M24">
-        <v>0.8173065483510271</v>
+        <v>0.4659844903638586</v>
       </c>
       <c r="N24">
-        <v>0.9278173201854898</v>
+        <v>2.035763929822423</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.113780134072272</v>
+        <v>2.252973449046294</v>
       </c>
       <c r="C25">
-        <v>1.142930090305526</v>
+        <v>0.3673492968682694</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03274606792847834</v>
+        <v>0.03738618378678105</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007947845234044902</v>
+        <v>0.002535028882079347</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.230516582783125</v>
+        <v>1.655248938188578</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1997471036637108</v>
+        <v>0.2280243248771399</v>
       </c>
       <c r="M25">
-        <v>0.6665333039514536</v>
+        <v>0.4324284692619855</v>
       </c>
       <c r="N25">
-        <v>1.019165810088232</v>
+        <v>2.071144266104746</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.093638017770559</v>
+        <v>3.433940686400831</v>
       </c>
       <c r="C2">
-        <v>0.315208144334747</v>
+        <v>0.9412400670615</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03627480459440591</v>
+        <v>0.02910489148545992</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002542814170109375</v>
+        <v>0.0008079808359913056</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.646081954904304</v>
+        <v>1.132502099672365</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2236549557337781</v>
+        <v>0.1746917598942375</v>
       </c>
       <c r="M2">
-        <v>0.4085453204198757</v>
+        <v>0.5602099032065766</v>
       </c>
       <c r="N2">
-        <v>2.099581378194465</v>
+        <v>1.094206838796765</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.988258088193845</v>
+        <v>2.986438281755113</v>
       </c>
       <c r="C3">
-        <v>0.2801567759861427</v>
+        <v>0.8087483760130283</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0355052710502779</v>
+        <v>0.0267078183592826</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002548453507922864</v>
+        <v>0.0008171803649191543</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.6417606853405</v>
+        <v>1.072777529787395</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2209323942782646</v>
+        <v>0.158419965089962</v>
       </c>
       <c r="M3">
-        <v>0.3928655311267661</v>
+        <v>0.4903703016763927</v>
       </c>
       <c r="N3">
-        <v>2.120333747197954</v>
+        <v>1.149312075626682</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.924823135559052</v>
+        <v>2.716923974829285</v>
       </c>
       <c r="C4">
-        <v>0.2587678202824577</v>
+        <v>0.7290144352948005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03502449253365114</v>
+        <v>0.02526039451440187</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002552096365496674</v>
+        <v>0.0008229700354306547</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.640033185484903</v>
+        <v>1.038955373252399</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2193779890623802</v>
+        <v>0.1487262553528197</v>
       </c>
       <c r="M4">
-        <v>0.3834853895524191</v>
+        <v>0.4483797972367256</v>
       </c>
       <c r="N4">
-        <v>2.133803042109761</v>
+        <v>1.185070641081325</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.899290298110429</v>
+        <v>2.608246392178671</v>
       </c>
       <c r="C5">
-        <v>0.2500840293490967</v>
+        <v>0.6968684341566131</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03482645905580561</v>
+        <v>0.02467531863471883</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002553626352529557</v>
+        <v>0.0008253668300084122</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.639561057955532</v>
+        <v>1.025827790864483</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2187740025749392</v>
+        <v>0.1448437434497123</v>
       </c>
       <c r="M5">
-        <v>0.379724856078326</v>
+        <v>0.4314654967628329</v>
       </c>
       <c r="N5">
-        <v>2.139474297073356</v>
+        <v>1.200102976860663</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.895069714919657</v>
+        <v>2.590265450327138</v>
       </c>
       <c r="C6">
-        <v>0.2486440194843453</v>
+        <v>0.6915498689411663</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0347934473017677</v>
+        <v>0.02457841735907351</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002553883158156492</v>
+        <v>0.000825767132749871</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.639496636650911</v>
+        <v>1.023685852423064</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2186754884493212</v>
+        <v>0.1442029542881187</v>
       </c>
       <c r="M6">
-        <v>0.3791041571795191</v>
+        <v>0.4286680554042377</v>
       </c>
       <c r="N6">
-        <v>2.140427008079335</v>
+        <v>1.202626251923071</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.92447750768639</v>
+        <v>2.715453860902585</v>
       </c>
       <c r="C7">
-        <v>0.2586505778245396</v>
+        <v>0.7285795768570438</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03502183037607587</v>
+        <v>0.02525248640920186</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002552116815120353</v>
+        <v>0.0008230022053361877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.640025880760099</v>
+        <v>1.038775754064559</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2193697243128128</v>
+        <v>0.1486736289157804</v>
       </c>
       <c r="M7">
-        <v>0.3834344231611269</v>
+        <v>0.448150920632763</v>
       </c>
       <c r="N7">
-        <v>2.133878788716046</v>
+        <v>1.185271537416192</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.057038668061864</v>
+        <v>3.278444408688756</v>
       </c>
       <c r="C8">
-        <v>0.3030942743851028</v>
+        <v>0.8951833389170929</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03601117015721478</v>
+        <v>0.0282724463592654</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002544721292929434</v>
+        <v>0.0008111247837940613</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.644399255026656</v>
+        <v>1.111279182417675</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2226918539530942</v>
+        <v>0.1690151505817852</v>
       </c>
       <c r="M8">
-        <v>0.4030874483507532</v>
+        <v>0.535927214084758</v>
       </c>
       <c r="N8">
-        <v>2.106585572930591</v>
+        <v>1.112793154379801</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.327147835593223</v>
+        <v>4.432722755333657</v>
       </c>
       <c r="C9">
-        <v>0.3913507429581387</v>
+        <v>1.237774203546394</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03788696263893776</v>
+        <v>0.03445868730219104</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002531641837716735</v>
+        <v>0.0007888540311782012</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.660366772655919</v>
+        <v>1.279144041748253</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2301394042953859</v>
+        <v>0.2116146078381007</v>
       </c>
       <c r="M9">
-        <v>0.4436027735483208</v>
+        <v>0.7164891915797398</v>
       </c>
       <c r="N9">
-        <v>2.05885443934195</v>
+        <v>0.987097245223822</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.531938890989068</v>
+        <v>5.324977382892939</v>
       </c>
       <c r="C10">
-        <v>0.4569399331048771</v>
+        <v>1.504017623527773</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0392279631514203</v>
+        <v>0.03927910303359816</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002522889691963589</v>
+        <v>0.0007729584415206945</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.676671430718741</v>
+        <v>1.422998332816988</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2361842465866033</v>
+        <v>0.2451170745072204</v>
       </c>
       <c r="M10">
-        <v>0.4745965229686036</v>
+        <v>0.8564412842725773</v>
       </c>
       <c r="N10">
-        <v>2.027343705917382</v>
+        <v>0.9066125898965041</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.626515185610572</v>
+        <v>5.744045192462181</v>
       </c>
       <c r="C11">
-        <v>0.4869571536984836</v>
+        <v>1.6295810814471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03983040632416923</v>
+        <v>0.04156287128879477</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.002519092082156152</v>
+        <v>0.0007657879637137338</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.685096899472327</v>
+        <v>1.494174993331498</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2390596994956837</v>
+        <v>0.260980580374337</v>
       </c>
       <c r="M11">
-        <v>0.4889680736322788</v>
+        <v>0.9222561782309739</v>
       </c>
       <c r="N11">
-        <v>2.013787046573427</v>
+        <v>0.8730614207383738</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.662534732410336</v>
+        <v>5.904977885707865</v>
       </c>
       <c r="C12">
-        <v>0.4983510753007181</v>
+        <v>1.677894918157335</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0400574803379854</v>
+        <v>0.04244388366539908</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002517680286336217</v>
+        <v>0.0007630774538934793</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.688433591127435</v>
+        <v>1.522078027103859</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2401666930447846</v>
+        <v>0.2670912024662044</v>
       </c>
       <c r="M12">
-        <v>0.4944497260098402</v>
+        <v>0.9475426983010991</v>
       </c>
       <c r="N12">
-        <v>2.008765873624483</v>
+        <v>0.8608451067515048</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.654768104527591</v>
+        <v>5.870212426713067</v>
       </c>
       <c r="C13">
-        <v>0.4958959693657903</v>
+        <v>1.667453397808345</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04000862242515524</v>
+        <v>0.0422533658809332</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002517983175662045</v>
+        <v>0.0007636610658038334</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.687708456444994</v>
+        <v>1.516024166754278</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2399274752625331</v>
+        <v>0.2657703275745433</v>
       </c>
       <c r="M13">
-        <v>0.4932673943815544</v>
+        <v>0.9420796541796292</v>
       </c>
       <c r="N13">
-        <v>2.00984226255455</v>
+        <v>0.8634535177942979</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.629474404312134</v>
+        <v>5.757238147624662</v>
       </c>
       <c r="C14">
-        <v>0.4878939898856629</v>
+        <v>1.633539752937565</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03984910885886528</v>
+        <v>0.04163500824251187</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002518975407081975</v>
+        <v>0.0007655648966768198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.685368475440569</v>
+        <v>1.496450770926486</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2391504089941634</v>
+        <v>0.2614811451209533</v>
       </c>
       <c r="M14">
-        <v>0.489418259949467</v>
+        <v>0.9243288815105828</v>
       </c>
       <c r="N14">
-        <v>2.013371694704965</v>
+        <v>0.8720462770827169</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.614008111285102</v>
+        <v>5.688341099840784</v>
       </c>
       <c r="C15">
-        <v>0.4829961026941305</v>
+        <v>1.612870452085247</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03975126536506757</v>
+        <v>0.04125845774578352</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002519586594955873</v>
+        <v>0.0007667315469630159</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.683954236709752</v>
+        <v>1.484589243672929</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.238676795219277</v>
+        <v>0.2588678147580623</v>
       </c>
       <c r="M15">
-        <v>0.4870657014971442</v>
+        <v>0.9135051637167493</v>
       </c>
       <c r="N15">
-        <v>2.015548234843301</v>
+        <v>0.8773748093466622</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.525786764280895</v>
+        <v>5.297883910883343</v>
       </c>
       <c r="C16">
-        <v>0.4549819615482988</v>
+        <v>1.495911608767642</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03918844222106443</v>
+        <v>0.0391319383084614</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002523141559580103</v>
+        <v>0.0007734279454064892</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.676141195382414</v>
+        <v>1.418472485661454</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2359988617049709</v>
+        <v>0.2440940363620854</v>
       </c>
       <c r="M16">
-        <v>0.4736628136079233</v>
+        <v>0.852187886640877</v>
       </c>
       <c r="N16">
-        <v>2.028245366733557</v>
+        <v>0.9088708321417442</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.472029831258737</v>
+        <v>5.061956775924273</v>
       </c>
       <c r="C17">
-        <v>0.4378431781427707</v>
+        <v>1.425384267652646</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03884124884629081</v>
+        <v>0.03785273934765243</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002525369379284448</v>
+        <v>0.0007775488570606311</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.671607230319196</v>
+        <v>1.379464691626922</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2343882516543943</v>
+        <v>0.2351996588316609</v>
       </c>
       <c r="M17">
-        <v>0.4655105365639969</v>
+        <v>0.8151588898999549</v>
       </c>
       <c r="N17">
-        <v>2.036234267253846</v>
+        <v>0.9290091185107983</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.441243408019318</v>
+        <v>4.927474545367659</v>
       </c>
       <c r="C18">
-        <v>0.4280023127554955</v>
+        <v>1.385228898120886</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03864083652308281</v>
+        <v>0.03712532220647979</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002526668070129824</v>
+        <v>0.0007799250554895248</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.669094259348498</v>
+        <v>1.357559925163926</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2334736921001337</v>
+        <v>0.2301415598951309</v>
       </c>
       <c r="M18">
-        <v>0.460847178028942</v>
+        <v>0.7940594572879931</v>
       </c>
       <c r="N18">
-        <v>2.040902438637936</v>
+        <v>0.9408770166332303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.430842462478722</v>
+        <v>4.88214041821567</v>
       </c>
       <c r="C19">
-        <v>0.4246732353576022</v>
+        <v>1.371699874772162</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03857285641741015</v>
+        <v>0.03688037763070184</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002527110761626039</v>
+        <v>0.0007807307292100412</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.668259665855501</v>
+        <v>1.350231109955061</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2331660664606261</v>
+        <v>0.2284384947516429</v>
       </c>
       <c r="M19">
-        <v>0.4592726355695405</v>
+        <v>0.7869481320004041</v>
       </c>
       <c r="N19">
-        <v>2.042495549557877</v>
+        <v>0.944942849020471</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.477738554710868</v>
+        <v>5.08694333829942</v>
       </c>
       <c r="C20">
-        <v>0.4396658728004468</v>
+        <v>1.432848727432429</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03887828202998733</v>
+        <v>0.03798802770788434</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002525130434088336</v>
+        <v>0.0007771095887746563</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.672080054237043</v>
+        <v>1.383561282845989</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.23455848003303</v>
+        <v>0.2361404132060017</v>
       </c>
       <c r="M20">
-        <v>0.4663757071364429</v>
+        <v>0.8190797572369419</v>
       </c>
       <c r="N20">
-        <v>2.035376258306378</v>
+        <v>0.9268355499465102</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.636898182540904</v>
+        <v>5.79035760385824</v>
       </c>
       <c r="C21">
-        <v>0.4902436220904747</v>
+        <v>1.643479130616015</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03989599031634583</v>
+        <v>0.04181616766147123</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002518683252679846</v>
+        <v>0.0007650055992208761</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.686051808929903</v>
+        <v>1.502173080238194</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2393781599011788</v>
+        <v>0.2627380539809536</v>
       </c>
       <c r="M21">
-        <v>0.4905477707563435</v>
+        <v>0.9295323632196286</v>
       </c>
       <c r="N21">
-        <v>2.012331958488225</v>
+        <v>0.8695086866098833</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.74211728923126</v>
+        <v>6.26334017011078</v>
       </c>
       <c r="C22">
-        <v>0.52345731194157</v>
+        <v>1.785674541774938</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04055496925413671</v>
+        <v>0.04441435993199327</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002514622737049388</v>
+        <v>0.000757120643270796</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.69603557244983</v>
+        <v>1.585302119572333</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2426337560237357</v>
+        <v>0.280732089934304</v>
       </c>
       <c r="M22">
-        <v>0.5065757466058045</v>
+        <v>1.00387177910774</v>
       </c>
       <c r="N22">
-        <v>1.997926848293062</v>
+        <v>0.8349193857336417</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.685849492774025</v>
+        <v>6.009558884967532</v>
       </c>
       <c r="C23">
-        <v>0.5057156919546628</v>
+        <v>1.709320175011499</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04020381186888322</v>
+        <v>0.04301766731436274</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.00251677595289978</v>
+        <v>0.0007613280861514106</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.690628671719764</v>
+        <v>1.540374959931299</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2408864959769375</v>
+        <v>0.2710673237208283</v>
       </c>
       <c r="M23">
-        <v>0.4980001569240144</v>
+        <v>0.9639782598823459</v>
       </c>
       <c r="N23">
-        <v>2.005554930781052</v>
+        <v>0.853099065863546</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.475157269848921</v>
+        <v>5.075643340036152</v>
       </c>
       <c r="C24">
-        <v>0.4388417938517364</v>
+        <v>1.429472834251555</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03886154184122148</v>
+        <v>0.03792683911487416</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002525238405399545</v>
+        <v>0.0007773081597688414</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.671865998881486</v>
+        <v>1.381707599327569</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2344814842739424</v>
+        <v>0.235714926624965</v>
       </c>
       <c r="M24">
-        <v>0.4659844903638586</v>
+        <v>0.81730654835102</v>
       </c>
       <c r="N24">
-        <v>2.035763929822423</v>
+        <v>0.9278173201854827</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.252973449046294</v>
+        <v>4.113780134072272</v>
       </c>
       <c r="C25">
-        <v>0.3673492968682694</v>
+        <v>1.142930090305413</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03738618378678105</v>
+        <v>0.03274606792848722</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002535028882079347</v>
+        <v>0.0007947845234012902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.655248938188578</v>
+        <v>1.230516582783125</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2280243248771399</v>
+        <v>0.1997471036636682</v>
       </c>
       <c r="M25">
-        <v>0.4324284692619855</v>
+        <v>0.6665333039514607</v>
       </c>
       <c r="N25">
-        <v>2.071144266104746</v>
+        <v>1.019165810088204</v>
       </c>
       <c r="O25">
         <v>0</v>
